--- a/tut05/output/0401ME09.xlsx
+++ b/tut05/output/0401ME09.xlsx
@@ -550,22 +550,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.081632653061224</v>
+        <v>8.08</v>
       </c>
       <c r="C6" t="n">
-        <v>7.340909090909091</v>
+        <v>7.34</v>
       </c>
       <c r="D6" t="n">
-        <v>8.382978723404255</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>8.26530612244898</v>
+        <v>8.27</v>
       </c>
       <c r="F6" t="n">
-        <v>8.130434782608695</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="G6" t="n">
-        <v>8.826086956521738</v>
+        <v>8.83</v>
       </c>
       <c r="H6" t="n">
         <v>9.85</v>
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.081632653061224</v>
+        <v>8.08</v>
       </c>
       <c r="C8" t="n">
-        <v>7.731182795698925</v>
+        <v>7.73</v>
       </c>
       <c r="D8" t="n">
         <v>7.95</v>
       </c>
       <c r="E8" t="n">
-        <v>8.031746031746032</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="F8" t="n">
-        <v>8.051063829787234</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="G8" t="n">
-        <v>8.177935943060499</v>
+        <v>8.18</v>
       </c>
       <c r="H8" t="n">
-        <v>8.386292834890966</v>
+        <v>8.390000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>8.470914127423823</v>
+        <v>8.470000000000001</v>
       </c>
     </row>
   </sheetData>
